--- a/Netbeans/ANA-ADDIX/output/data_storge/techable.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storge/techable.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="2015">
   <si>
     <t>Url</t>
   </si>
@@ -6067,6 +6067,21 @@
   </si>
   <si>
     <t>https://techable.jp/archives/97598</t>
+  </si>
+  <si>
+    <t>https://techable.jp/archives/112925</t>
+  </si>
+  <si>
+    <t>https://techable.jp/archives/112839</t>
+  </si>
+  <si>
+    <t>https://techable.jp/archives/112880</t>
+  </si>
+  <si>
+    <t>https://techable.jp/archives/112890</t>
+  </si>
+  <si>
+    <t>https://techable.jp/archives/112919</t>
   </si>
 </sst>
 </file>
@@ -6473,7 +6488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A544"/>
+  <dimension ref="A1:A698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3"/>
@@ -9204,6 +9219,776 @@
         <v>1930</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>1786</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9212,7 +9997,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A191"/>
+  <dimension ref="A1:A231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3"/>
@@ -10178,6 +10963,206 @@
         <v>1683</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>1908</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10185,7 +11170,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A187"/>
+  <dimension ref="A1:A225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3"/>
@@ -11131,6 +12116,196 @@
         <v>1702</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>1927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11138,7 +12313,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD140"/>
@@ -11259,6 +12434,196 @@
         <v>2009</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>2008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11266,7 +12631,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:A173"/>
+  <dimension ref="A1:A211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3 A3:A22"/>
@@ -12142,6 +13507,196 @@
         <v>1721</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>1945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12149,7 +13704,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2 A2"/>
@@ -12505,6 +14060,116 @@
         <v>1732</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>1957</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12512,7 +14177,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:A169"/>
+  <dimension ref="A1:A207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3"/>
@@ -13366,6 +15031,196 @@
     <row r="169">
       <c r="A169" t="s">
         <v>1751</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>1976</v>
       </c>
     </row>
   </sheetData>
@@ -13406,7 +15261,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2 A2"/>
@@ -13915,6 +15770,196 @@
     <row r="100">
       <c r="A100" t="s">
         <v>1770</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>1995</v>
       </c>
     </row>
   </sheetData>
@@ -14000,7 +16045,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A176"/>
+  <dimension ref="A1:A271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3"/>
@@ -14889,6 +16934,481 @@
     <row r="176">
       <c r="A176" t="s">
         <v>1584</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>1809</v>
       </c>
     </row>
   </sheetData>
@@ -14986,7 +17506,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A159"/>
+  <dimension ref="A1:A197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3"/>
@@ -15792,6 +18312,196 @@
         <v>1603</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>1828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15799,7 +18509,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A254"/>
+  <dimension ref="A1:A292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3"/>
@@ -17080,6 +19790,196 @@
         <v>1622</v>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>1926</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17087,7 +19987,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A146"/>
+  <dimension ref="A1:A184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3"/>
@@ -17828,6 +20728,196 @@
         <v>1641</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>1866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17835,7 +20925,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A153"/>
+  <dimension ref="A1:A191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3"/>
@@ -18609,6 +21699,196 @@
     <row r="153">
       <c r="A153" t="s">
         <v>1821</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>1885</v>
       </c>
     </row>
   </sheetData>
@@ -18651,7 +21931,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3 A3"/>
@@ -18797,6 +22077,46 @@
         <v>1664</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
